--- a/Thiết kế/UseCases/1. QLNV + 2. Chấm công.xlsx
+++ b/Thiết kế/UseCases/1. QLNV + 2. Chấm công.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Phân tích\UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CNPM\Thiết kế\UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E7E37B-F8B2-40FE-855D-758CAB8F2241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A22135-4ABE-4DD0-B5A6-76EFB343397F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{70C1F1DC-1DC4-47AB-BCD1-D42F388C200A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C1F1DC-1DC4-47AB-BCD1-D42F388C200A}"/>
   </bookViews>
   <sheets>
     <sheet name="UCFormat -QLNV" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +506,12 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -651,45 +657,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -697,15 +707,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,65 +1127,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C2621A-69EC-42B6-924F-E3471F86D7A7}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
     <col min="2" max="2" width="41" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="23"/>
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="23"/>
+    </row>
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="23"/>
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="23"/>
+    </row>
+    <row r="5" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="18"/>
-    </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1189,71 +1197,71 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
       <c r="B7" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+    <row r="8" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+    <row r="9" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+    <row r="10" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+    <row r="11" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
       <c r="B11" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+    <row r="12" spans="1:3" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
+    <row r="13" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
       <c r="B13" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-    </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+    </row>
+    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="25"/>
-    </row>
-    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
@@ -1261,62 +1269,62 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+    <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+    <row r="18" spans="1:3" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+    <row r="19" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
       <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+    <row r="20" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
       <c r="B20" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
+    <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
+    <row r="22" spans="1:3" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-    </row>
-    <row r="24" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="24" t="s">
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+    </row>
+    <row r="24" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="25"/>
-    </row>
-    <row r="25" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="C24" s="28"/>
+    </row>
+    <row r="25" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
@@ -1324,61 +1332,61 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
+    <row r="26" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
       <c r="B26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
+    <row r="27" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+    <row r="28" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
       <c r="B28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+    <row r="29" spans="1:3" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
       <c r="B29" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
+    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
       <c r="B30" s="2"/>
       <c r="C30" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
+    <row r="31" spans="1:3" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
       <c r="B31" s="3"/>
       <c r="C31" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-    </row>
-    <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
-      <c r="B33" s="21" t="s">
+    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="18"/>
-    </row>
-    <row r="34" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
+      <c r="C33" s="23"/>
+    </row>
+    <row r="34" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
       <c r="B34" s="16" t="s">
         <v>11</v>
       </c>
@@ -1386,55 +1394,55 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
+    <row r="35" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
       <c r="B35" s="16" t="s">
         <v>105</v>
       </c>
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
+    <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
       <c r="B36" s="16" t="s">
         <v>106</v>
       </c>
       <c r="C36" s="16"/>
     </row>
-    <row r="37" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
+    <row r="37" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
+    <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
       <c r="B38" s="16" t="s">
         <v>109</v>
       </c>
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
+    <row r="39" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-    </row>
-    <row r="41" spans="1:3" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
+    <row r="40" spans="1:3" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+    </row>
+    <row r="41" spans="1:3" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
       <c r="B41" s="17" t="s">
         <v>83</v>
       </c>
       <c r="C41" s="16"/>
     </row>
-    <row r="42" spans="1:3" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
+    <row r="42" spans="1:3" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
       <c r="B42" s="16" t="s">
         <v>11</v>
       </c>
@@ -1442,126 +1450,115 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
+    <row r="43" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
       <c r="B43" s="16" t="s">
         <v>110</v>
       </c>
       <c r="C43" s="16"/>
     </row>
-    <row r="44" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
+    <row r="44" spans="1:3" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
-    </row>
-    <row r="46" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="27" t="s">
+    <row r="45" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
+    </row>
+    <row r="46" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="25"/>
-    </row>
-    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
-      <c r="B47" s="24" t="s">
+      <c r="C46" s="28"/>
+    </row>
+    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="25"/>
-    </row>
-    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="28"/>
+    </row>
+    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="20"/>
-    </row>
-    <row r="49" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="25"/>
+    </row>
+    <row r="49" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="20"/>
-    </row>
-    <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="25"/>
+    </row>
+    <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="20"/>
-    </row>
-    <row r="51" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="25"/>
+    </row>
+    <row r="51" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="20"/>
-    </row>
-    <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="25"/>
+    </row>
+    <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="20"/>
-    </row>
-    <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="20"/>
-    </row>
-    <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="25"/>
+    </row>
+    <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="20"/>
-    </row>
-    <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="25"/>
+    </row>
+    <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="30">
+      <c r="B55" s="24">
         <v>44154</v>
       </c>
-      <c r="C55" s="20"/>
+      <c r="C55" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A15:A45"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
@@ -1577,7 +1574,19 @@
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A15:A45"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1588,55 +1597,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734B381B-EDB8-4874-9EC9-0431D31E0CB1}">
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="86" workbookViewId="0">
+    <sheetView topLeftCell="A72" zoomScale="86" workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="53.88671875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="83.33203125" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="12"/>
+    <col min="1" max="1" width="34.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="83.28515625" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="33"/>
-    </row>
-    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="35"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="31"/>
-    </row>
-    <row r="3" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="33"/>
+    </row>
+    <row r="3" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="31"/>
-    </row>
-    <row r="4" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="33"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="31"/>
-    </row>
-    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="33"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1645,8 +1654,8 @@
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1656,104 +1665,104 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
       <c r="B7" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="9"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
       <c r="B8" s="8"/>
       <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
       <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
       <c r="B11" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+    <row r="13" spans="1:3" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
       <c r="B13" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
       <c r="B14" s="10"/>
       <c r="C14" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
       <c r="B15" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
       <c r="B16" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
       <c r="B17" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
       <c r="B18" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1761,8 +1770,8 @@
       </c>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
       <c r="B22" s="9" t="s">
         <v>50</v>
       </c>
@@ -1770,43 +1779,43 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
       <c r="B23" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
       <c r="B25" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
+    <row r="26" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
       <c r="B26" s="8"/>
       <c r="C26" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="34" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="34"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
+      <c r="C27" s="32"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
       <c r="B28" s="9" t="s">
         <v>50</v>
       </c>
@@ -1814,36 +1823,36 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
       <c r="B29" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="8"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
+    <row r="31" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
       <c r="B31" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="34" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="34"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
+      <c r="C32" s="32"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
       <c r="B33" s="9" t="s">
         <v>50</v>
       </c>
@@ -1851,50 +1860,50 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
       <c r="B34" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="10"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
       <c r="B35" s="8"/>
       <c r="C35" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
       <c r="B36" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C36" s="10"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="29"/>
       <c r="B37" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="34" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
+      <c r="B39" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="34"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
+      <c r="C39" s="32"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="29"/>
       <c r="B40" s="9" t="s">
         <v>50</v>
       </c>
@@ -1902,29 +1911,29 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="29"/>
       <c r="B41" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="29"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
       <c r="B43" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="29"/>
       <c r="B44" s="9" t="s">
         <v>50</v>
       </c>
@@ -1932,43 +1941,43 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="29"/>
       <c r="B45" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="29"/>
       <c r="B46" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="29"/>
       <c r="B47" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="29"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="29"/>
       <c r="B49" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21"/>
+    <row r="50" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29"/>
       <c r="B50" s="9" t="s">
         <v>50</v>
       </c>
@@ -1976,36 +1985,36 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="21"/>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="29"/>
       <c r="B51" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C51" s="8"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="29"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
+    <row r="53" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A53" s="29"/>
       <c r="B53" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C53" s="8"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="21"/>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="29"/>
       <c r="B54" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C54" s="8"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="29"/>
       <c r="B55" s="9" t="s">
         <v>50</v>
       </c>
@@ -2013,26 +2022,26 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="29"/>
       <c r="B56" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C56" s="8"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="29"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="21"/>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="29"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>16</v>
       </c>
@@ -2041,34 +2050,34 @@
       </c>
       <c r="C59" s="8"/>
     </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="31"/>
-    </row>
-    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="33"/>
+    </row>
+    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C61" s="36"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="37"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="31"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="33"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>22</v>
       </c>
@@ -2077,16 +2086,16 @@
       </c>
       <c r="C63" s="8"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="31"/>
-    </row>
-    <row r="65" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="33"/>
+    </row>
+    <row r="65" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>27</v>
       </c>
@@ -2095,59 +2104,54 @@
       </c>
       <c r="C65" s="8"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="32"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="34"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="31"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="33"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
     </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
     </row>
-    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
     </row>
-    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
     </row>
-    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
     </row>
-    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
     </row>
-    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="49.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="49.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="82.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="82.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A6:A20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A21:A58"/>
-    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C67"/>
@@ -2159,6 +2163,11 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A6:A20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A21:A58"/>
+    <mergeCell ref="B62:C62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Thiết kế/UseCases/1. QLNV + 2. Chấm công.xlsx
+++ b/Thiết kế/UseCases/1. QLNV + 2. Chấm công.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CNPM\Thiết kế\UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Thiết kế\UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A22135-4ABE-4DD0-B5A6-76EFB343397F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A8D9EE-851F-4661-BB1D-A050679544A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C1F1DC-1DC4-47AB-BCD1-D42F388C200A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{70C1F1DC-1DC4-47AB-BCD1-D42F388C200A}"/>
   </bookViews>
   <sheets>
     <sheet name="UCFormat -QLNV" sheetId="1" r:id="rId1"/>
@@ -308,10 +308,6 @@
     <t>3. Quản lí nhập tiền vào phần đã trả nhân viên</t>
   </si>
   <si>
-    <t>4. Hệ thống tính và hiển thị số tiền còn cần trả và trạng thái. Use case kết thúc 
-tại đây</t>
-  </si>
-  <si>
     <t>13. Hệ thống lưu thông tin vào CSDL lịch làm. Use case kết thúc tại đây</t>
   </si>
   <si>
@@ -482,6 +478,9 @@
   </si>
   <si>
     <t>2. Quay trở về trang danh mục nhân viên</t>
+  </si>
+  <si>
+    <t>4. Hệ thống tính và hiển thị số tiền còn cần trả và trạng thái. Use case kết thúc tại đây</t>
   </si>
 </sst>
 </file>
@@ -612,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -632,24 +631,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -657,6 +648,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -666,52 +684,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,23 +708,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1414887</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>76855</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190961</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40C3C50-5872-4B96-B26C-42DDF3DC0DA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28E47FA4-E7FD-4F28-BF85-F41DA15CD46B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -766,8 +740,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="18296021"/>
-          <a:ext cx="6628571" cy="6790476"/>
+          <a:off x="8391525" y="0"/>
+          <a:ext cx="8725361" cy="8810625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -783,23 +757,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>586877</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>5417622</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>14211</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>42792</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B94FDE4-FB68-4B6F-98B7-C12747EBD21B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74A17C5B-C745-440D-8531-C00A8912E9EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -815,8 +789,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="15842512"/>
-          <a:ext cx="11504762" cy="6819048"/>
+          <a:off x="8356556" y="1"/>
+          <a:ext cx="12897801" cy="7417862"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1127,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C2621A-69EC-42B6-924F-E3471F86D7A7}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1145,49 +1119,49 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1198,70 +1172,70 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
@@ -1270,61 +1244,61 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
     </row>
     <row r="24" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="28"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="21"/>
     </row>
     <row r="25" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
@@ -1333,232 +1307,243 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="2"/>
       <c r="C30" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="3"/>
       <c r="C31" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="29" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="23"/>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="16" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="16" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="16"/>
-    </row>
-    <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="16" t="s">
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="16"/>
-    </row>
-    <row r="37" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="16" t="s">
+    <row r="40" spans="1:3" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+    </row>
+    <row r="41" spans="1:3" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="1:3" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+      <c r="B43" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="16"/>
-    </row>
-    <row r="39" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-    </row>
-    <row r="41" spans="1:3" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="16"/>
-    </row>
-    <row r="42" spans="1:3" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="16" t="s">
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="1:3" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="16"/>
-    </row>
-    <row r="44" spans="1:3" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="45" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
     </row>
     <row r="46" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="28"/>
+      <c r="C46" s="21"/>
     </row>
     <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="27" t="s">
+      <c r="A47" s="24"/>
+      <c r="B47" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="28"/>
+      <c r="C47" s="21"/>
     </row>
     <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="25"/>
+      <c r="C48" s="16"/>
     </row>
     <row r="49" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="25"/>
+      <c r="C49" s="16"/>
     </row>
     <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="25"/>
+      <c r="C50" s="16"/>
     </row>
     <row r="51" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="25"/>
+      <c r="C51" s="16"/>
     </row>
     <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="25"/>
+      <c r="C52" s="16"/>
     </row>
     <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="25"/>
+      <c r="C53" s="16"/>
     </row>
     <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="25"/>
+      <c r="C54" s="16"/>
     </row>
     <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="24">
+      <c r="B55" s="26">
         <v>44154</v>
       </c>
-      <c r="C55" s="25"/>
+      <c r="C55" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A15:A45"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
@@ -1574,17 +1559,6 @@
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A15:A45"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1597,548 +1571,547 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734B381B-EDB8-4874-9EC9-0431D31E0CB1}">
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="83.28515625" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="34.85546875" style="7" customWidth="1"/>
+    <col min="2" max="3" width="40.7109375" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="35"/>
-    </row>
-    <row r="2" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="33"/>
-    </row>
-    <row r="3" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="33"/>
-    </row>
-    <row r="4" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="33"/>
-    </row>
-    <row r="5" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7" t="s">
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="8" t="s">
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="8" t="s">
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="8" t="s">
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="8" t="s">
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="17"/>
+    </row>
+    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="9" t="s">
+      <c r="C41" s="12"/>
+    </row>
+    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C44" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="32"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="9" t="s">
+    <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+      <c r="B45" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="12"/>
+    </row>
+    <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="12"/>
+    </row>
+    <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="12"/>
+    </row>
+    <row r="48" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A48" s="17"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+      <c r="B49" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="12"/>
+    </row>
+    <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C50" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="32"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="9" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="12"/>
+    </row>
+    <row r="52" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="12"/>
+    </row>
+    <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17"/>
+      <c r="B54" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="12"/>
+    </row>
+    <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="17"/>
+      <c r="B55" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C55" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="10"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="10"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="32"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="8"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="8"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="8"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="8" t="s">
+    <row r="56" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
+      <c r="B56" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="8"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="8"/>
-    </row>
-    <row r="50" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" s="8"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
-      <c r="B53" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="8"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C54" s="8"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="8" t="s">
+      <c r="C56" s="12"/>
+    </row>
+    <row r="57" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="8"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8" t="s">
+    </row>
+    <row r="58" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+    </row>
+    <row r="59" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="16"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="16"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-    </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" s="8" t="s">
+      <c r="C61" s="16"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="16"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="16"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="8"/>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="33"/>
-    </row>
-    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="37"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C62" s="33"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" s="8"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B64" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="33"/>
-    </row>
-    <row r="65" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+      <c r="C64" s="16"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C65" s="8"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="C65" s="16"/>
+    </row>
+    <row r="66" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="34"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="C66" s="16"/>
+    </row>
+    <row r="67" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="33"/>
+      <c r="C67" s="16"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
+      <c r="A69" s="8"/>
     </row>
     <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
+      <c r="A70" s="9"/>
     </row>
     <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
+      <c r="A71" s="9"/>
     </row>
     <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
+      <c r="A72" s="9"/>
     </row>
     <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
+      <c r="A73" s="9"/>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
+      <c r="A74" s="9"/>
     </row>
     <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2151,7 +2124,13 @@
     <row r="83" ht="82.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="84" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="20">
+    <mergeCell ref="A6:A20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A21:A58"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B59:C59"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C67"/>
@@ -2163,11 +2142,9 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A6:A20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A21:A58"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Thiết kế/UseCases/1. QLNV + 2. Chấm công.xlsx
+++ b/Thiết kế/UseCases/1. QLNV + 2. Chấm công.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Thiết kế\UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F5CC18-F671-42AC-B7AF-7DA5E07ECA28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28765BC3-0BEB-4BA8-8D00-1B2173DDCF54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{70C1F1DC-1DC4-47AB-BCD1-D42F388C200A}"/>
   </bookViews>
@@ -757,6 +757,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -766,35 +793,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -873,16 +873,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>511910</xdr:colOff>
+      <xdr:colOff>483338</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>101668</xdr:rowOff>
+      <xdr:rowOff>73097</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB7BA0BF-BE89-4560-ABA7-BDE5E78F2605}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F5D6F9-D3A3-463E-9186-0FE3F7887B34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,7 +899,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8597153" y="251012"/>
-          <a:ext cx="10552381" cy="6923809"/>
+          <a:ext cx="10523809" cy="6895238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1228,49 +1228,49 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1281,42 +1281,42 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>97</v>
@@ -1324,20 +1324,20 @@
     </row>
     <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
@@ -1346,61 +1346,61 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
     </row>
     <row r="23" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="24"/>
+      <c r="C23" s="21"/>
     </row>
     <row r="24" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="13" t="s">
         <v>11</v>
       </c>
@@ -1409,60 +1409,60 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="2"/>
       <c r="C29" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="3"/>
       <c r="C30" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
     </row>
     <row r="32" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="25" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="19"/>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="13" t="s">
         <v>11</v>
       </c>
@@ -1471,171 +1471,186 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C34" s="10"/>
     </row>
     <row r="35" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="10" t="s">
         <v>95</v>
       </c>
       <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
     </row>
     <row r="40" spans="1:3" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
-      <c r="B40" s="23" t="s">
+      <c r="A40" s="24"/>
+      <c r="B40" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="24"/>
+      <c r="C40" s="21"/>
     </row>
     <row r="41" spans="1:3" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
     </row>
     <row r="42" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
-      <c r="B42" s="22" t="s">
+      <c r="A42" s="24"/>
+      <c r="B42" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="21"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="21"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
     </row>
     <row r="44" spans="1:3" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
-      <c r="B44" s="22" t="s">
+      <c r="A44" s="24"/>
+      <c r="B44" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="21"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
     </row>
     <row r="46" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="24"/>
+      <c r="C46" s="21"/>
     </row>
     <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="23" t="s">
+      <c r="A47" s="24"/>
+      <c r="B47" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="24"/>
+      <c r="C47" s="21"/>
     </row>
     <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="21"/>
+      <c r="C48" s="16"/>
     </row>
     <row r="49" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="21"/>
+      <c r="C49" s="16"/>
     </row>
     <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="21"/>
+      <c r="C50" s="16"/>
     </row>
     <row r="51" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="21"/>
+      <c r="C51" s="16"/>
     </row>
     <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="21"/>
+      <c r="C52" s="16"/>
     </row>
     <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="21"/>
+      <c r="C53" s="16"/>
     </row>
     <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="21"/>
+      <c r="C54" s="16"/>
     </row>
     <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="26">
         <v>44154</v>
       </c>
-      <c r="C55" s="21"/>
+      <c r="C55" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A14:A45"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
@@ -1652,21 +1667,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A14:A45"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1680,7 +1680,7 @@
   <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -1694,49 +1694,49 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -1747,103 +1747,103 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -1852,7 +1852,7 @@
       <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="12" t="s">
         <v>43</v>
       </c>
@@ -1861,42 +1861,42 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="12" t="s">
         <v>43</v>
       </c>
@@ -1905,28 +1905,28 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="12" t="s">
         <v>43</v>
       </c>
@@ -1935,49 +1935,49 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="11" t="s">
         <v>84</v>
       </c>
       <c r="C36" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="25"/>
+      <c r="C38" s="17"/>
     </row>
     <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="12" t="s">
         <v>43</v>
       </c>
@@ -1986,28 +1986,28 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="11" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C42" s="11"/>
     </row>
     <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="12" t="s">
         <v>43</v>
       </c>
@@ -2016,42 +2016,42 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
+      <c r="A44" s="17"/>
       <c r="B44" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
+      <c r="A46" s="17"/>
       <c r="B46" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
+      <c r="A48" s="17"/>
       <c r="B48" s="12" t="s">
         <v>81</v>
       </c>
       <c r="C48" s="11"/>
     </row>
     <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
+      <c r="A49" s="17"/>
       <c r="B49" s="12" t="s">
         <v>43</v>
       </c>
@@ -2060,28 +2060,28 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
+      <c r="A50" s="17"/>
       <c r="B50" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C50" s="11"/>
     </row>
     <row r="51" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
+      <c r="A51" s="17"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
+      <c r="A52" s="17"/>
       <c r="B52" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C52" s="11"/>
     </row>
     <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="12" t="s">
         <v>43</v>
       </c>
@@ -2090,21 +2090,21 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
+      <c r="A54" s="17"/>
       <c r="B54" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C54" s="11"/>
     </row>
     <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
+      <c r="A55" s="17"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
+      <c r="A56" s="17"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
     </row>
@@ -2112,82 +2112,82 @@
       <c r="A57" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="21"/>
+      <c r="C57" s="16"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="21"/>
+      <c r="C58" s="16"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="21"/>
+      <c r="C59" s="16"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C60" s="21"/>
+      <c r="C60" s="16"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="21"/>
+      <c r="C61" s="16"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="21"/>
+      <c r="C62" s="16"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="21"/>
+      <c r="C63" s="16"/>
     </row>
     <row r="64" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C64" s="21"/>
+      <c r="C64" s="16"/>
     </row>
     <row r="65" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="21"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
@@ -2219,6 +2219,12 @@
     <row r="82" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:A20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A21:A56"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B57:C57"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
@@ -2233,12 +2239,6 @@
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A6:A20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A21:A56"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B57:C57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Thiết kế/UseCases/1. QLNV + 2. Chấm công.xlsx
+++ b/Thiết kế/UseCases/1. QLNV + 2. Chấm công.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Thiết kế\UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\CNPM\Thiết kế\UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28765BC3-0BEB-4BA8-8D00-1B2173DDCF54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09756967-975A-4420-98A6-6B4D9F7C6DAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{70C1F1DC-1DC4-47AB-BCD1-D42F388C200A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{70C1F1DC-1DC4-47AB-BCD1-D42F388C200A}"/>
   </bookViews>
   <sheets>
     <sheet name="UCFormat -QLNV" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="111">
   <si>
     <t>Use Case Number:</t>
   </si>
@@ -575,6 +575,9 @@
     </r>
   </si>
   <si>
+    <t>2. Hệ thống hiển thị cửa sổ lịch sử check in, Use case kết thúc tại đây</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">2. Hệ thống hiển thị cửa sổ check in,  Use case kết thúc tại đây </t>
     </r>
@@ -587,9 +590,42 @@
       </rPr>
       <t>A5, A6</t>
     </r>
-  </si>
-  <si>
-    <t>2. Hệ thống hiển thị cửa sổ lịch sử check in, Use case kết thúc tại đây</t>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>A8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>A8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>. Actor chọn thoát kết thúc và không lưu gì vào CSDL</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -757,44 +793,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1210,67 +1246,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C2621A-69EC-42B6-924F-E3471F86D7A7}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
     <col min="2" max="2" width="41" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="9.109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1280,64 +1316,64 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+    <row r="8" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+    <row r="9" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
+    <row r="10" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
+    <row r="11" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
+    <row r="12" spans="1:3" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-    </row>
-    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+    </row>
+    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="21"/>
-    </row>
-    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+      <c r="C14" s="24"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
       <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
@@ -1345,62 +1381,62 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
+    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+    <row r="17" spans="1:3" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+    <row r="18" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
       <c r="B18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+    <row r="19" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
       <c r="B19" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
+    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+    <row r="21" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-    </row>
-    <row r="23" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="20" t="s">
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="21"/>
-    </row>
-    <row r="24" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
+      <c r="C23" s="24"/>
+    </row>
+    <row r="24" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
       <c r="B24" s="13" t="s">
         <v>11</v>
       </c>
@@ -1408,61 +1444,61 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
+    <row r="25" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
+    <row r="26" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
+    <row r="27" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
       <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
+    <row r="28" spans="1:3" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
       <c r="B28" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
+    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
       <c r="B29" s="2"/>
       <c r="C29" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
+    <row r="30" spans="1:3" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
       <c r="B30" s="3"/>
       <c r="C30" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-    </row>
-    <row r="32" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="17" t="s">
+    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="14"/>
-    </row>
-    <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
+      <c r="C32" s="19"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
       <c r="B33" s="13" t="s">
         <v>11</v>
       </c>
@@ -1470,187 +1506,172 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+    <row r="34" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
       <c r="B34" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C34" s="10"/>
     </row>
-    <row r="35" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
+    <row r="35" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
       <c r="B35" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C35" s="10"/>
     </row>
-    <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
+    <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
+    <row r="37" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
       <c r="B37" s="10" t="s">
         <v>95</v>
       </c>
       <c r="C37" s="10"/>
     </row>
-    <row r="38" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
+    <row r="38" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-    </row>
-    <row r="40" spans="1:3" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="20" t="s">
+    <row r="39" spans="1:3" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+    </row>
+    <row r="40" spans="1:3" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="21"/>
-    </row>
-    <row r="41" spans="1:3" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="19"/>
-    </row>
-    <row r="42" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="15" t="s">
+      <c r="C40" s="24"/>
+    </row>
+    <row r="41" spans="1:3" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+    </row>
+    <row r="42" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="16"/>
-    </row>
-    <row r="43" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-    </row>
-    <row r="44" spans="1:3" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="15" t="s">
+      <c r="C42" s="21"/>
+    </row>
+    <row r="43" spans="1:3" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="21"/>
+    </row>
+    <row r="44" spans="1:3" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="16"/>
-    </row>
-    <row r="45" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-    </row>
-    <row r="46" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="23" t="s">
+      <c r="C44" s="21"/>
+    </row>
+    <row r="45" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+    </row>
+    <row r="46" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="21"/>
-    </row>
-    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
-      <c r="B47" s="20" t="s">
+      <c r="C46" s="24"/>
+    </row>
+    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="21"/>
-    </row>
-    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="24"/>
+    </row>
+    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="16"/>
-    </row>
-    <row r="49" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="21"/>
+    </row>
+    <row r="49" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="16"/>
-    </row>
-    <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="21"/>
+    </row>
+    <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="16"/>
-    </row>
-    <row r="51" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="21"/>
+    </row>
+    <row r="51" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="16"/>
-    </row>
-    <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="21"/>
+    </row>
+    <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="16"/>
-    </row>
-    <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="21"/>
+    </row>
+    <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="16"/>
-    </row>
-    <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="21"/>
+    </row>
+    <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="16"/>
-    </row>
-    <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="21"/>
+    </row>
+    <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="26">
+      <c r="B55" s="20">
         <v>44154</v>
       </c>
-      <c r="C55" s="16"/>
+      <c r="C55" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A14:A45"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
@@ -1667,6 +1688,21 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A14:A45"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1679,64 +1715,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734B381B-EDB8-4874-9EC9-0431D31E0CB1}">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" style="7" customWidth="1"/>
-    <col min="2" max="3" width="40.6640625" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="7"/>
+    <col min="1" max="1" width="34.85546875" style="7" customWidth="1"/>
+    <col min="2" max="3" width="40.7109375" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="16"/>
-    </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="C5" s="21"/>
+    </row>
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -1746,104 +1782,104 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
       <c r="B7" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+    <row r="8" spans="1:3" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+    <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
       <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+    <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
       <c r="B11" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
       <c r="B13" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+    <row r="14" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
       <c r="B15" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
       <c r="B16" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+    <row r="17" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
       <c r="B17" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
       <c r="B18" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="1:3" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-    </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -1851,8 +1887,8 @@
       </c>
       <c r="C21" s="11"/>
     </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
       <c r="B22" s="12" t="s">
         <v>43</v>
       </c>
@@ -1860,43 +1896,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
       <c r="B23" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+    <row r="25" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
       <c r="B25" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="1:3" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
+    <row r="26" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17" t="s">
+    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="17"/>
-    </row>
-    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
+      <c r="C27" s="25"/>
+    </row>
+    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
       <c r="B28" s="12" t="s">
         <v>43</v>
       </c>
@@ -1904,29 +1940,29 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
+    <row r="29" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
       <c r="B29" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
+    <row r="30" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="17"/>
-    </row>
-    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
       <c r="B32" s="12" t="s">
         <v>43</v>
       </c>
@@ -1934,50 +1970,50 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
+    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
       <c r="B33" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C33" s="11"/>
     </row>
-    <row r="34" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
+    <row r="34" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
+    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
       <c r="B35" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C35" s="11"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
       <c r="B36" s="11" t="s">
         <v>84</v>
       </c>
       <c r="C36" s="11"/>
     </row>
-    <row r="37" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
+    <row r="37" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17" t="s">
+    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="17"/>
-    </row>
-    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
+      <c r="C38" s="25"/>
+    </row>
+    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
       <c r="B39" s="12" t="s">
         <v>43</v>
       </c>
@@ -1985,29 +2021,29 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
+    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
       <c r="B40" s="11" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="11"/>
     </row>
-    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
+    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
+    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
       <c r="B42" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C42" s="11"/>
     </row>
-    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
+    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
       <c r="B43" s="12" t="s">
         <v>43</v>
       </c>
@@ -2015,43 +2051,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
+    <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
       <c r="B44" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C44" s="11"/>
     </row>
-    <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
+    <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
       <c r="B45" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C45" s="11"/>
     </row>
-    <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
+    <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
       <c r="B46" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C46" s="11"/>
     </row>
-    <row r="47" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
+    <row r="47" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
+    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
       <c r="B48" s="12" t="s">
         <v>81</v>
       </c>
       <c r="C48" s="11"/>
     </row>
-    <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
+    <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
       <c r="B49" s="12" t="s">
         <v>43</v>
       </c>
@@ -2059,29 +2095,29 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
       <c r="B50" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C50" s="11"/>
     </row>
-    <row r="51" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
+    <row r="51" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
       <c r="B52" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C52" s="11"/>
     </row>
-    <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
+    <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
       <c r="B53" s="12" t="s">
         <v>43</v>
       </c>
@@ -2089,142 +2125,138 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
+    <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
       <c r="B54" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C54" s="11"/>
     </row>
-    <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
+    <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-    </row>
-    <row r="57" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="B56" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="18"/>
+    </row>
+    <row r="57" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="16"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="21"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="16"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="21"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="16"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="21"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C60" s="16"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="21"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="16"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="21"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="16"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="21"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="16"/>
-    </row>
-    <row r="64" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="21"/>
+    </row>
+    <row r="64" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C64" s="16"/>
-    </row>
-    <row r="65" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="21"/>
+    </row>
+    <row r="65" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="16"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="21"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
     </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
     </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
     </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
     </row>
-    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
     </row>
-    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
     </row>
-    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="82.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="82.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A6:A20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A21:A56"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B57:C57"/>
+  <mergeCells count="21">
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
@@ -2239,6 +2271,13 @@
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A6:A20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A21:A56"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B57:C57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Thiết kế/UseCases/1. QLNV + 2. Chấm công.xlsx
+++ b/Thiết kế/UseCases/1. QLNV + 2. Chấm công.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\CNPM\Thiết kế\UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Thiết kế\UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09756967-975A-4420-98A6-6B4D9F7C6DAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718BBDA2-B103-4124-A08D-CC4B67397CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{70C1F1DC-1DC4-47AB-BCD1-D42F388C200A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{70C1F1DC-1DC4-47AB-BCD1-D42F388C200A}"/>
   </bookViews>
   <sheets>
     <sheet name="UCFormat -QLNV" sheetId="1" r:id="rId1"/>
@@ -579,15 +579,34 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">2. Hệ thống hiển thị cửa sổ check in,  Use case kết thúc tại đây </t>
-    </r>
-    <r>
       <rPr>
         <b/>
         <sz val="13"/>
         <color theme="1"/>
         <rFont val="Helvetica"/>
       </rPr>
+      <t>A8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>. Actor chọn thoát kết thúc và không lưu gì vào CSDL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Hệ thống hiển thị cửa sổ check in, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
       <t>A5, A6</t>
     </r>
     <r>
@@ -606,25 +625,6 @@
         <rFont val="Helvetica"/>
       </rPr>
       <t>A8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>A8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>. Actor chọn thoát kết thúc và không lưu gì vào CSDL</t>
     </r>
   </si>
 </sst>
@@ -756,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -793,6 +793,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -802,35 +829,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,16 +915,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>483338</xdr:colOff>
+      <xdr:colOff>492862</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>73097</xdr:rowOff>
+      <xdr:rowOff>130240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F5D6F9-D3A3-463E-9186-0FE3F7887B34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{138D55A9-C8D7-42B3-B014-F5A6AC1547F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -935,7 +941,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8597153" y="251012"/>
-          <a:ext cx="10523809" cy="6895238"/>
+          <a:ext cx="10533333" cy="6952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1250,63 +1256,63 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
     <col min="2" max="2" width="41" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="9.109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19"/>
-    </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19"/>
-    </row>
-    <row r="5" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="19"/>
-    </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1316,64 +1322,64 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+    <row r="8" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+    <row r="9" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+    <row r="10" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+    <row r="11" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
       <c r="B11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+    <row r="12" spans="1:3" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-    </row>
-    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+    </row>
+    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="24"/>
-    </row>
-    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="C14" s="21"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
       <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
@@ -1381,62 +1387,62 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+    <row r="17" spans="1:3" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+    <row r="18" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
       <c r="B18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+    <row r="19" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
       <c r="B19" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+    <row r="21" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-    </row>
-    <row r="23" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="23" t="s">
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="24"/>
-    </row>
-    <row r="24" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="C23" s="21"/>
+    </row>
+    <row r="24" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
       <c r="B24" s="13" t="s">
         <v>11</v>
       </c>
@@ -1444,61 +1450,61 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+    <row r="25" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+    <row r="26" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+    <row r="27" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
       <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+    <row r="28" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
       <c r="B28" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
       <c r="B29" s="2"/>
       <c r="C29" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+    <row r="30" spans="1:3" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
       <c r="B30" s="3"/>
       <c r="C30" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-    </row>
-    <row r="32" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="25" t="s">
+    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="24"/>
+      <c r="B32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="19"/>
-    </row>
-    <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="24"/>
       <c r="B33" s="13" t="s">
         <v>11</v>
       </c>
@@ -1506,172 +1512,187 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
+    <row r="34" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="24"/>
       <c r="B34" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C34" s="10"/>
     </row>
-    <row r="35" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+    <row r="35" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="24"/>
       <c r="B35" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C35" s="10"/>
     </row>
-    <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
+    <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="24"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
+    <row r="37" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="24"/>
       <c r="B37" s="10" t="s">
         <v>95</v>
       </c>
       <c r="C37" s="10"/>
     </row>
-    <row r="38" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
+    <row r="38" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="24"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-    </row>
-    <row r="40" spans="1:3" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="23" t="s">
+    <row r="39" spans="1:3" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+    </row>
+    <row r="40" spans="1:3" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="24"/>
+      <c r="B40" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="24"/>
-    </row>
-    <row r="41" spans="1:3" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-    </row>
-    <row r="42" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="22" t="s">
+      <c r="C40" s="21"/>
+    </row>
+    <row r="41" spans="1:3" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="24"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+    </row>
+    <row r="42" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="24"/>
+      <c r="B42" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="21"/>
-    </row>
-    <row r="43" spans="1:3" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="21"/>
-    </row>
-    <row r="44" spans="1:3" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="22" t="s">
+      <c r="C42" s="16"/>
+    </row>
+    <row r="43" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="24"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+    </row>
+    <row r="44" spans="1:3" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="24"/>
+      <c r="B44" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="21"/>
-    </row>
-    <row r="45" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
-    </row>
-    <row r="46" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="C44" s="16"/>
+    </row>
+    <row r="45" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="25"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+    </row>
+    <row r="46" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="24"/>
-    </row>
-    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="23" t="s">
+      <c r="C46" s="21"/>
+    </row>
+    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="24"/>
+      <c r="B47" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="24"/>
-    </row>
-    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="21"/>
+    </row>
+    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="21"/>
-    </row>
-    <row r="49" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="16"/>
+    </row>
+    <row r="49" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="21"/>
-    </row>
-    <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="16"/>
+    </row>
+    <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="21"/>
-    </row>
-    <row r="51" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="16"/>
+    </row>
+    <row r="51" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="21"/>
-    </row>
-    <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="16"/>
+    </row>
+    <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="21"/>
-    </row>
-    <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="16"/>
+    </row>
+    <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="21"/>
-    </row>
-    <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="16"/>
+    </row>
+    <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="21"/>
-    </row>
-    <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="16"/>
+    </row>
+    <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="26">
         <v>44154</v>
       </c>
-      <c r="C55" s="21"/>
+      <c r="C55" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A14:A45"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
@@ -1688,21 +1709,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A14:A45"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1715,64 +1721,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734B381B-EDB8-4874-9EC9-0431D31E0CB1}">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:C56"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="7" customWidth="1"/>
-    <col min="2" max="3" width="40.7109375" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="34.88671875" style="7" customWidth="1"/>
+    <col min="2" max="3" width="40.6640625" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="19"/>
-    </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="21"/>
-    </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -1782,104 +1788,104 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
+    <row r="7" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
       <c r="B7" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:3" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+    <row r="8" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+    <row r="9" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
       <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+    <row r="10" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
       <c r="B11" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+    <row r="13" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
       <c r="B13" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+    <row r="14" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
       <c r="B15" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
       <c r="B16" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+    <row r="17" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
       <c r="B17" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
       <c r="B18" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+    <row r="19" spans="1:3" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-    </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -1887,8 +1893,8 @@
       </c>
       <c r="C21" s="11"/>
     </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
       <c r="B22" s="12" t="s">
         <v>43</v>
       </c>
@@ -1896,43 +1902,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
       <c r="B23" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
+    <row r="25" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
       <c r="B25" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
+    <row r="26" spans="1:3" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25" t="s">
+    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="25"/>
-    </row>
-    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
       <c r="B28" s="12" t="s">
         <v>43</v>
       </c>
@@ -1940,29 +1946,29 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
+    <row r="29" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
       <c r="B29" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
+    <row r="30" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="25"/>
-    </row>
-    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
+      <c r="C31" s="17"/>
+    </row>
+    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
       <c r="B32" s="12" t="s">
         <v>43</v>
       </c>
@@ -1970,50 +1976,50 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
+    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
       <c r="B33" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C33" s="11"/>
     </row>
-    <row r="34" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
+    <row r="34" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
+    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
       <c r="B35" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C35" s="11"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
       <c r="B36" s="11" t="s">
         <v>84</v>
       </c>
       <c r="C36" s="11"/>
     </row>
-    <row r="37" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
+    <row r="37" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25" t="s">
+    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="25"/>
-    </row>
-    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
+      <c r="C38" s="17"/>
+    </row>
+    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
       <c r="B39" s="12" t="s">
         <v>43</v>
       </c>
@@ -2021,29 +2027,29 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
+    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
       <c r="B40" s="11" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="11"/>
     </row>
-    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
+    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
+    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
       <c r="B42" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C42" s="11"/>
     </row>
-    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
+    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
       <c r="B43" s="12" t="s">
         <v>43</v>
       </c>
@@ -2051,43 +2057,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
+    <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
       <c r="B44" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C44" s="11"/>
     </row>
-    <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
+    <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
       <c r="B45" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C45" s="11"/>
     </row>
-    <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
+    <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17"/>
       <c r="B46" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C46" s="11"/>
     </row>
-    <row r="47" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
+    <row r="47" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
+    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="17"/>
       <c r="B48" s="12" t="s">
         <v>81</v>
       </c>
       <c r="C48" s="11"/>
     </row>
-    <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
+    <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="17"/>
       <c r="B49" s="12" t="s">
         <v>43</v>
       </c>
@@ -2095,29 +2101,29 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="17"/>
       <c r="B50" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C50" s="11"/>
     </row>
-    <row r="51" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
+    <row r="51" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="17"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
+    <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="17"/>
       <c r="B52" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C52" s="11"/>
     </row>
-    <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
+    <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="17"/>
       <c r="B53" s="12" t="s">
         <v>43</v>
       </c>
@@ -2125,138 +2131,144 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
+    <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="17"/>
       <c r="B54" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C54" s="11"/>
     </row>
-    <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
+    <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="17"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="18"/>
-    </row>
-    <row r="57" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="17"/>
+      <c r="B56" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="28"/>
+    </row>
+    <row r="57" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="21"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="16"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="21"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="16"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="21"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="16"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C60" s="21"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="16"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="21"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="16"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="21"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="16"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="21"/>
-    </row>
-    <row r="64" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="16"/>
+    </row>
+    <row r="64" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C64" s="21"/>
-    </row>
-    <row r="65" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="16"/>
+    </row>
+    <row r="65" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="21"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="16"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
     </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
     </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
     </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
     </row>
-    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
     </row>
-    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
     </row>
-    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="82.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="82.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A6:A20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A21:A56"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B57:C57"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
@@ -2272,12 +2284,6 @@
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A6:A20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A21:A56"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B57:C57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
